--- a/results/multilabel_powerset/285ps/automl.xlsx
+++ b/results/multilabel_powerset/285ps/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.823 (0.815 Â± 0.011)</t>
+          <t>0.823 (0.815 ± 0.011)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:51 (00:01:03 Â± 00:00:06)</t>
+          <t>00:00:51 (00:01:03 ± 00:00:06)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:10 (00:00:10 Â± 00:00:00)</t>
+          <t>00:00:10 (00:00:10 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.188 (0.116 Â± 0.046)</t>
+          <t>0.188 (0.116 ± 0.046)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:18 (00:00:25 Â± 00:00:05)</t>
+          <t>00:00:18 (00:00:25 ± 00:00:05)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.047 (0.011 Â± 0.014)</t>
+          <t>0.047 (0.011 ± 0.014)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:08 (00:05:23 Â± 00:00:16)</t>
+          <t>00:05:08 (00:05:23 ± 00:00:16)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.265 (0.182 Â± 0.062)</t>
+          <t>0.265 (0.182 ± 0.062)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:03 Â± 00:00:02)</t>
+          <t>00:04:59 (00:05:03 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -635,17 +635,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.272 (0.137 Â± 0.061)</t>
+          <t>0.272 (0.137 ± 0.061)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:02 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.290 (0.163 Â± 0.069)</t>
+          <t>0.290 (0.163 ± 0.069)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:11 (00:05:23 Â± 00:00:10)</t>
+          <t>00:05:11 (00:05:23 ± 00:00:10)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.026 (0.005 Â± 0.009)</t>
+          <t>0.026 (0.005 ± 0.009)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -755,17 +755,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.220 (0.086 Â± 0.059)</t>
+          <t>0.220 (0.086 ± 0.059)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:04:15 (00:04:34 Â± 00:00:14)</t>
+          <t>00:04:15 (00:04:34 ± 00:00:14)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,17 +787,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.201 (0.152 Â± 0.050)</t>
+          <t>0.201 (0.152 ± 0.050)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:55 (00:01:19 Â± 00:00:42)</t>
+          <t>00:00:55 (00:01:19 ± 00:00:42)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -819,17 +819,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.273 (0.168 Â± 0.057)</t>
+          <t>0.273 (0.168 ± 0.057)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:49 (00:00:52 Â± 00:00:01)</t>
+          <t>00:00:49 (00:00:52 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
